--- a/Front End SQA/FrontEndTesting.xlsx
+++ b/Front End SQA/FrontEndTesting.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abel.Abel-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier\Documents\GitHub\UPOD\Front End SQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -115,13 +115,31 @@
   </si>
   <si>
     <t>Frontend - SQA</t>
+  </si>
+  <si>
+    <t>home.html</t>
+  </si>
+  <si>
+    <t>Xavier Kuttamparambil</t>
+  </si>
+  <si>
+    <t>If resize the page and squish it vertically, the search textbox  goes off of the white background box</t>
+  </si>
+  <si>
+    <t>Also, if u squish the page vertically then the search textbox is sometimes on top of the about and create a page buttons so that they can not be clicked</t>
+  </si>
+  <si>
+    <t>If you squish the page horizontally, the about and create a page buttons at the bottom mess up; the create a page button has the word page show up a line below the rest of the buttons even though there is tons of page. Also the buttons are not centered when the page is squished horizontally.</t>
+  </si>
+  <si>
+    <t>The arrow button to search ended up below the search bar on the right side (one of the ways to get the error is to click on the textbox and press enter)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,6 +171,13 @@
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -238,12 +263,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -272,11 +298,21 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Excel_BuiltIn_Neutral" xfId="2"/>
+  <cellStyles count="4">
+    <cellStyle name="Excel_BuiltIn_Neutral" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,28 +623,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125"/>
-    <col min="2" max="2" width="18.5703125"/>
-    <col min="3" max="3" width="14.140625"/>
-    <col min="4" max="4" width="19.5703125"/>
+    <col min="1" max="1" width="25.5546875"/>
+    <col min="2" max="2" width="18.5546875"/>
+    <col min="3" max="3" width="14.109375"/>
+    <col min="4" max="4" width="19.5546875"/>
     <col min="5" max="5" width="20"/>
-    <col min="6" max="6" width="17.28515625"/>
-    <col min="7" max="7" width="21.28515625"/>
-    <col min="8" max="8" width="20.5703125"/>
-    <col min="9" max="256" width="11.7109375"/>
-    <col min="257" max="1025" width="11.5703125"/>
+    <col min="6" max="6" width="17.33203125"/>
+    <col min="7" max="7" width="21.33203125"/>
+    <col min="8" max="8" width="20.5546875"/>
+    <col min="9" max="256" width="11.6640625"/>
+    <col min="257" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
@@ -621,7 +657,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
@@ -634,7 +670,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -663,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -692,7 +728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -713,7 +749,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -734,7 +770,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -755,7 +791,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -776,7 +812,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -797,7 +833,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -818,7 +854,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -839,7 +875,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -860,51 +896,91 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43089</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43089</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:9" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43089</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43089</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -915,7 +991,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -926,7 +1002,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -937,7 +1013,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -948,7 +1024,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -959,7 +1035,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -970,7 +1046,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -981,7 +1057,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -992,7 +1068,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1003,7 +1079,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1014,7 +1090,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1025,7 +1101,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1036,7 +1112,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1047,7 +1123,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1058,7 +1134,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1069,7 +1145,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1080,7 +1156,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1091,7 +1167,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1102,7 +1178,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1113,7 +1189,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1124,7 +1200,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1135,7 +1211,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1146,7 +1222,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1157,7 +1233,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1168,7 +1244,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1179,7 +1255,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1190,7 +1266,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1201,7 +1277,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1212,7 +1288,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1223,7 +1299,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1234,7 +1310,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1245,7 +1321,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1256,7 +1332,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1267,7 +1343,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1278,7 +1354,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1289,7 +1365,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1300,7 +1376,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1311,7 +1387,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1322,7 +1398,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1333,7 +1409,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1344,7 +1420,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1355,7 +1431,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1366,7 +1442,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1377,7 +1453,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1388,7 +1464,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1399,7 +1475,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1410,7 +1486,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1421,7 +1497,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1432,7 +1508,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1443,7 +1519,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1454,7 +1530,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1465,7 +1541,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1476,7 +1552,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1487,7 +1563,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1498,7 +1574,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1509,7 +1585,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1520,7 +1596,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1531,7 +1607,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1542,7 +1618,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1553,7 +1629,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1564,7 +1640,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1575,7 +1651,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1586,7 +1662,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1597,7 +1673,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1608,7 +1684,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1619,7 +1695,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1630,7 +1706,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1641,7 +1717,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1652,7 +1728,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1663,7 +1739,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1674,7 +1750,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1685,7 +1761,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1696,7 +1772,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1707,7 +1783,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1723,8 +1799,13 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{74ED26D4-BD79-483E-ACF1-3918FB7A4AA6}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{5EB75C9D-6D15-4981-9E02-4900E1825AFE}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{F2CCDDBF-C25C-4D33-808D-6211FCA3D7DD}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>

--- a/Front End SQA/FrontEndTesting.xlsx
+++ b/Front End SQA/FrontEndTesting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -123,16 +123,25 @@
     <t>Xavier Kuttamparambil</t>
   </si>
   <si>
-    <t>If resize the page and squish it vertically, the search textbox  goes off of the white background box</t>
-  </si>
-  <si>
-    <t>Also, if u squish the page vertically then the search textbox is sometimes on top of the about and create a page buttons so that they can not be clicked</t>
-  </si>
-  <si>
-    <t>If you squish the page horizontally, the about and create a page buttons at the bottom mess up; the create a page button has the word page show up a line below the rest of the buttons even though there is tons of page. Also the buttons are not centered when the page is squished horizontally.</t>
-  </si>
-  <si>
-    <t>The arrow button to search ended up below the search bar on the right side (one of the ways to get the error is to click on the textbox and press enter)</t>
+    <t>The arrow button to search ended up below the search bar on the right side (one of the ways to get the error is to click on the textbox and press enter) (Chrome)</t>
+  </si>
+  <si>
+    <t>If resize the page and squish it vertically, the search textbox  goes off of the white background box (Chrome)</t>
+  </si>
+  <si>
+    <t>Also, if u squish the page vertically then the search textbox is sometimes on top of the about and create a page buttons so that they can not be clicked (Chrome)</t>
+  </si>
+  <si>
+    <t>If you squish the page horizontally, the about and create a page buttons at the bottom mess up; the create a page button has the word page show up a line below the rest of the buttons even though there is tons of page. Also the buttons are not centered when the page is squished horizontally. (Chrome)</t>
+  </si>
+  <si>
+    <t>if you add a section and then click on the textbox which says section title, if you press enter, every added section disappears (Chrome)</t>
+  </si>
+  <si>
+    <t>same as above for the textbox diagram url (Chrome)</t>
+  </si>
+  <si>
+    <t>the add image button also makes every section disappear as well (Chrome)</t>
   </si>
 </sst>
 </file>
@@ -292,12 +301,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -306,6 +309,12 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -626,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,30 +654,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -898,7 +907,7 @@
     </row>
     <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
@@ -919,7 +928,7 @@
     </row>
     <row r="14" spans="1:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -940,9 +949,9 @@
     </row>
     <row r="15" spans="1:9" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -959,14 +968,14 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="4">
@@ -980,34 +989,64 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43089</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43089</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43090</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>

--- a/Front End SQA/FrontEndTesting.xlsx
+++ b/Front End SQA/FrontEndTesting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Description</t>
   </si>
@@ -126,22 +126,34 @@
     <t>The arrow button to search ended up below the search bar on the right side (one of the ways to get the error is to click on the textbox and press enter) (Chrome)</t>
   </si>
   <si>
-    <t>If resize the page and squish it vertically, the search textbox  goes off of the white background box (Chrome)</t>
-  </si>
-  <si>
-    <t>Also, if u squish the page vertically then the search textbox is sometimes on top of the about and create a page buttons so that they can not be clicked (Chrome)</t>
-  </si>
-  <si>
-    <t>If you squish the page horizontally, the about and create a page buttons at the bottom mess up; the create a page button has the word page show up a line below the rest of the buttons even though there is tons of page. Also the buttons are not centered when the page is squished horizontally. (Chrome)</t>
-  </si>
-  <si>
-    <t>if you add a section and then click on the textbox which says section title, if you press enter, every added section disappears (Chrome)</t>
-  </si>
-  <si>
-    <t>same as above for the textbox diagram url (Chrome)</t>
-  </si>
-  <si>
-    <t>the add image button also makes every section disappear as well (Chrome)</t>
+    <t>If  you resize the page and squish it vertically, the search textbox  goes off of the white background box (Chrome)</t>
+  </si>
+  <si>
+    <t>(This problem can be grouped with the above) Also, if u squish the page vertically then the search textbox is sometimes on top of the about and create a page buttons so that they can not be clicked (Chrome)</t>
+  </si>
+  <si>
+    <t>If you squish the page horizontally, the 'about' and 'create a page' buttons at the bottom mess up; the 'create a page' button has the word 'page' show up a line below the rest of the buttons even though there is tons of page. Also the buttons are not centered when the page is squished horizontally. (Chrome) (FireFox has a similar problem) (Edge)</t>
+  </si>
+  <si>
+    <t>if you squish the edit page horizontally, the arrow button on the right of the search bar at the top gets moved to a new line underneath the search textbox and is left centered (Chrome) (FireFox) (Edge)</t>
+  </si>
+  <si>
+    <t>if you add a section and then click on the textbox which says section title, if you press enter, every added section disappears (Chrome) (FireFox) (Edge)</t>
+  </si>
+  <si>
+    <t>same as above for the textbox 'diagram url' (Chrome) (FireFox) (Edge)</t>
+  </si>
+  <si>
+    <t>if you squish the edit page horizontally, the scroll bar at the bottom only scrolls the page name textbox with the delete button which is beside it and some page name label which is hidden behind the UPOD logo. I don’t think we want to show that label. (Chrome) (FireFox) (Edge)</t>
+  </si>
+  <si>
+    <t>the add image button also makes every section disappear as well (Chrome) (FireFox) (Edge)</t>
+  </si>
+  <si>
+    <t>(Same problem as above) if you squish the edit page horizontally, everything which comes up when you click 'add section' gets scrolled underneath the 'save changes' and 'add section' buttons if you scroll the bar which comes up because you squished the page. (Chrome) (FireFox) (Edge)</t>
+  </si>
+  <si>
+    <t>(Same problem as above) because textbox doesn’t scroll with the scroll bar, if the window is sized small enough, u wont be able to see it u can't scroll to it (Chrome) (FireFox) (Edge)</t>
   </si>
 </sst>
 </file>
@@ -182,11 +194,10 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -272,13 +283,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -301,25 +311,21 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Excel_BuiltIn_Neutral" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -635,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,30 +660,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -912,8 +918,8 @@
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="4">
         <v>43089</v>
@@ -926,15 +932,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="4">
         <v>43089</v>
@@ -947,15 +953,15 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="4">
         <v>43089</v>
@@ -968,15 +974,15 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
         <v>43089</v>
@@ -991,7 +997,7 @@
     </row>
     <row r="17" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1012,7 +1018,7 @@
     </row>
     <row r="18" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -1033,7 +1039,7 @@
     </row>
     <row r="19" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -1052,45 +1058,85 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43090</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
+    <row r="21" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43090</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
+    <row r="22" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43090</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43090</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
@@ -1844,7 +1890,7 @@
     <hyperlink ref="B16" r:id="rId3" xr:uid="{F2CCDDBF-C25C-4D33-808D-6211FCA3D7DD}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
